--- a/FSV_OP_Val.xlsx
+++ b/FSV_OP_Val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.015465766441936236</t>
+          <t>0.021873161497890765</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.13659345771756976</t>
+          <t>0.15313040004971085</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>207.17066819077652</t>
+          <t>257.34667040200196</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.01755899056739324</t>
+          <t>0.022736529386368044</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1776018839075401</t>
+          <t>0.12138135947620783</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>223.6901868669931</t>
+          <t>208.0835259763712</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.018260081191915568</t>
+          <t>0.01476355478477787</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.15868595350579048</t>
+          <t>0.13257775230626645</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>232.2420946570921</t>
+          <t>178.7885703296453</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.009885361460044774</t>
+          <t>0.012805976376835788</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.1350897223196135</t>
+          <t>0.1440801848053472</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>187.83271139850572</t>
+          <t>178.20407886711047</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.015715055322484826</t>
+          <t>0.02008678854397679</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.1629100003181441</t>
+          <t>0.12479824905984462</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>200.45665577114238</t>
+          <t>212.0393425697351</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.030959213833447748</t>
+          <t>0.021640609508691615</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.151286289674871</t>
+          <t>0.15854445527339095</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>345.06696269099194</t>
+          <t>247.30627547286622</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.006457620881895798</t>
+          <t>0.020380918390536462</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.15439136613199</t>
+          <t>0.1194968254028824</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>167.66728381385454</t>
+          <t>256.55121099248055</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0198524439250125</t>
+          <t>0.021435336572133732</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.14144484444727104</t>
+          <t>0.12213413883449971</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>195.36501896923548</t>
+          <t>227.28540481840867</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.027873620541406186</t>
+          <t>0.025921483299978045</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.17725577982114085</t>
+          <t>0.15167393043404784</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>241.29836898895877</t>
+          <t>249.56361046192862</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.01472977799249995</t>
+          <t>0.019963050484129177</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.1529952662570979</t>
+          <t>0.1269903462273107</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>182.29521817693563</t>
+          <t>230.72856100962858</t>
         </is>
       </c>
     </row>
@@ -656,297 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.018682552036517704</t>
+          <t>0.014487249922682157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.1485155075801656</t>
+          <t>0.12487227965511069</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>226.1661905429085</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.020835772009034147</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.13565618404906693</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>219.22536261413848</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.017323244313351756</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.16213826860517436</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>194.97571272504103</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.024009509074561265</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.15151454490466126</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>226.02030980755174</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.023778535020467277</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.16740832606591338</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>246.63465516429648</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.01672154740538254</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.15445675642150347</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>194.7782680479947</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.010658322353693597</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.1484405564391626</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>201.78590806914653</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.025656467066501595</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.16177923175902834</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>255.59285854425727</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.02364231211758043</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.14469556735265482</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>242.8488547781326</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.013529940950787652</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.13108045720906247</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>228.5301322092526</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.016801522671369813</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.1615894478922466</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>197.54262685080644</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.025713587557246134</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.12703917405089374</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>259.27760405987976</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.02242958211476465</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.1691867375217347</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>216.40220101841732</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.025127320782909867</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.15893036527182008</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>246.51721515670144</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.021299930395314925</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.16460038422049056</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>244.24492133329483</t>
+          <t>191.50128665251916</t>
         </is>
       </c>
     </row>

--- a/FSV_OP_Val.xlsx
+++ b/FSV_OP_Val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.021873161497890765</t>
+          <t>0.020763809179714546</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.15313040004971085</t>
+          <t>0.20082451389803185</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>257.34667040200196</t>
+          <t>226.7790308087609</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.022736529386368044</t>
+          <t>0.019640364184415882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.12138135947620783</t>
+          <t>0.15257431609776007</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>208.0835259763712</t>
+          <t>213.2170295136697</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.01476355478477787</t>
+          <t>0.02125242145483162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.13257775230626645</t>
+          <t>0.14254897368921166</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>178.7885703296453</t>
+          <t>243.5094733559598</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.012805976376835788</t>
+          <t>0.022168997505917543</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.1440801848053472</t>
+          <t>0.15065717421895364</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>178.20407886711047</t>
+          <t>248.84193928466613</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.02008678854397679</t>
+          <t>0.019628343786904964</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.12479824905984462</t>
+          <t>0.15274782601104617</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>212.0393425697351</t>
+          <t>215.59682129400406</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.021640609508691615</t>
+          <t>0.02636967330555836</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.15854445527339095</t>
+          <t>0.166084975848852</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>247.30627547286622</t>
+          <t>243.6797352923733</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.020380918390536462</t>
+          <t>0.010177179283691957</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.1194968254028824</t>
+          <t>0.18425779777582685</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>256.55121099248055</t>
+          <t>181.36242377774693</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.021435336572133732</t>
+          <t>0.02439198566862852</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.12213413883449971</t>
+          <t>0.1623306426115377</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>227.28540481840867</t>
+          <t>238.1366719541054</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.025921483299978045</t>
+          <t>0.026086908922723025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.15167393043404784</t>
+          <t>0.13150573377439978</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>249.56361046192862</t>
+          <t>285.9968094696704</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.019963050484129177</t>
+          <t>0.015797829004205153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.1269903462273107</t>
+          <t>0.14652383321037796</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>230.72856100962858</t>
+          <t>213.84858700600483</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,897 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.014487249922682157</t>
+          <t>0.023208741381569274</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.12487227965511069</t>
+          <t>0.15495574840787524</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>191.50128665251916</t>
+          <t>230.71913187696467</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.021348533063684824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.13473003086205226</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>217.49023349008567</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.01573553802707201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.15016697292694778</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>200.41219000633848</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.018412391311935013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.14822594504486208</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>237.24266139159994</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.023909366917288434</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.1372587027670602</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>221.76792190519825</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.02296797173977454</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.13479415836541925</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>237.08543067770657</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.021348533063684824</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.17415518586767584</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>236.22319418640325</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.01746011366292017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.16890019672597875</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>222.85353712989757</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.023674917227087866</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.15512248476244783</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>240.96710076591663</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.02238797549555112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.13782010849118315</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>235.4686681915384</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.026364551698695667</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.18191510387444923</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>221.3373954001314</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.011458790720084145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.1460872082011536</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>177.6203510621236</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.013419169048222398</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.13913506390304947</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>188.61013275729138</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.02072514839513002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.15088905868978586</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>278.57160565060406</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.024159549150253295</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.1120471166624536</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>257.80750854547256</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.030458181790071398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.17398086792904793</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>288.1166193397813</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.022168997505917543</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.13836244533849187</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>248.3525912466306</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.01596426746563033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.15305247611558673</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>197.2483708757608</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.026584087771334558</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.1225517506658672</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>270.1622822357799</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.020747553213849718</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.14789778439948</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>226.26254074714134</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.026128429343539934</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.18191510387444923</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>263.311997023847</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.020979131984869843</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.21121101911850182</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>220.65058099630048</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.024800814728392316</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.17826095019889415</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>284.89114543594496</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.025765564016683087</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.13042287271793543</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>213.10109025919598</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.020585418921807423</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.14569644836879533</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>210.75160554200968</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.030292377493008976</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.11862143156711688</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>233.61940119782707</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.030147566108845628</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.15130911026560542</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>260.20301976920763</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.012488164860408766</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.1533252265000589</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>176.71473059006505</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.01983610419157021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.1527686288346642</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>247.14053481241012</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.02025055990455155</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.12382298664378097</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>168.09845982356273</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.01658804035881714</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.14773046935438697</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>229.91674261697545</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.010626492388301802</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.1623873866302783</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>175.78699729046917</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.01771369495639432</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.1475881261781773</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>188.96284522542442</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.0245590808414391</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.15067068059028385</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>211.94138708477982</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.023917299463898773</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.13340969847718787</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>260.67624852990184</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.018956016319159098</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.18167572422090345</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>219.49521587540312</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.023958838846884965</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.175786360099011</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>229.22200777722355</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.011752498711054625</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.14375354011397612</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>180.72024934878016</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.0251643444689464</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.13150573377439978</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>245.36246951777636</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.02111275549753445</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.15597855379157496</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>200.98717209099013</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.027721015904053972</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.16295535328653646</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>330.7049667768011</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.021288420260769783</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.16548770912854943</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>232.7989487142549</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.013419169048222398</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.15050499469469486</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>196.81603693255263</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.026549610415930514</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.1178095468613354</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>243.3925492405844</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.016556694459219614</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.1523007044475322</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>218.01046716162844</t>
         </is>
       </c>
     </row>
